--- a/src/main/java/com/testdata/CRM.xlsx
+++ b/src/main/java/com/testdata/CRM.xlsx
@@ -4,17 +4,129 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6830"/>
+    <workbookView windowWidth="19200" windowHeight="6830" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddProduct" sheetId="2" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>ModelN0</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Item description</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>breadth</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Inventory Status</t>
+  </si>
+  <si>
+    <t>Inventory Condition</t>
+  </si>
+  <si>
+    <t>Inventory Location</t>
+  </si>
+  <si>
+    <t>received data</t>
+  </si>
+  <si>
+    <t>Actual price</t>
+  </si>
+  <si>
+    <t>MRPFactor</t>
+  </si>
+  <si>
+    <t>HSN code</t>
+  </si>
+  <si>
+    <t>RackName</t>
+  </si>
+  <si>
+    <t>Supplier details</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Bedroom</t>
+  </si>
+  <si>
+    <t>A333</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>Bedroom table lamp</t>
+  </si>
+  <si>
+    <t>Home sake</t>
+  </si>
+  <si>
+    <t>38cm</t>
+  </si>
+  <si>
+    <t>20cm</t>
+  </si>
+  <si>
+    <t>18cm</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>27-04-22</t>
+  </si>
+  <si>
+    <t>B09Z2Y9SR7</t>
+  </si>
+  <si>
+    <t>Homesake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homesake, Inovation 
+handart Pvt. Ltd, Noida, 
+Customer Care - 0120-4206972
+</t>
+  </si>
   <si>
     <t>Username</t>
   </si>
@@ -644,12 +756,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1184,6 +1299,159 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="4" max="4" width="16.9090909090909" customWidth="1"/>
+    <col min="10" max="10" width="16.4545454545455" customWidth="1"/>
+    <col min="11" max="11" width="17.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="16.5454545454545" customWidth="1"/>
+    <col min="13" max="14" width="12.8181818181818" customWidth="1"/>
+    <col min="15" max="15" width="12.7272727272727" customWidth="1"/>
+    <col min="16" max="16" width="11.7272727272727" customWidth="1"/>
+    <col min="17" max="17" width="13.2727272727273" customWidth="1"/>
+    <col min="18" max="18" width="13.3636363636364" customWidth="1"/>
+    <col min="19" max="19" width="9.54545454545454" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="159.5" spans="1:20">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>3000</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1198,18 +1466,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -1219,17 +1487,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/CRM.xlsx
+++ b/src/main/java/com/testdata/CRM.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6830" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6830" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="2" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="AddCondition" sheetId="3" r:id="rId3"/>
+    <sheet name="EditCondition" sheetId="4" r:id="rId4"/>
+    <sheet name="DeleteCondition" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>category</t>
   </si>
@@ -141,6 +144,57 @@
   </si>
   <si>
     <t>@#$%^&amp;</t>
+  </si>
+  <si>
+    <t>Condition Name</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>ConditionName</t>
+  </si>
+  <si>
+    <t>EditedConditionname</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>satisfactory</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>quite good</t>
+  </si>
+  <si>
+    <t>not great</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1508,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1508,4 +1562,173 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="22.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="20.2818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>